--- a/biology/Zoologie/Dysdera_transcaspica/Dysdera_transcaspica.xlsx
+++ b/biology/Zoologie/Dysdera_transcaspica/Dysdera_transcaspica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dysdera transcaspica est une espèce d'araignées aranéomorphes de la famille des Dysderidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dysdera transcaspica est une espèce d'araignées aranéomorphes de la famille des Dysderidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Turkménistan et en Iran[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Turkménistan et en Iran.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 4,20 mm et la femelle paratype 5,40 mm[2]
-Le mâle décrit par Zamani, Marusik et Szűts en 2023 mesure 3,91 mm et la femelle 5,44 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 4,20 mm et la femelle paratype 5,40 mm
+Le mâle décrit par Zamani, Marusik et Szűts en 2023 mesure 3,91 mm et la femelle 5,44 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Dunin et Fet en 1985. Elle est placée dans le genre Dysderella par Dunin en 1992[4] puis dans le genre Dysdera par Bellvert, Dimitrov, Zamani et Arnedo en 2024[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Dunin et Fet en 1985. Elle est placée dans le genre Dysderella par Dunin en 1992 puis dans le genre Dysdera par Bellvert, Dimitrov, Zamani et Arnedo en 2024.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la mer Caspienne.
 </t>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Dunin &amp; Fet, 1985 : « Dysdera transcaspica sp. n. (Aranei, Dysderidae) from Turkmenia. » Zoologicheskii Zhurnal, vol. 64, no 2, p. 298-300.</t>
         </is>
